--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pr1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pr1000" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pr1-9" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Pr10-9" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pr100-9" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Pr1000-9" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t xml:space="preserve">Ra</t>
   </si>
@@ -90,12 +95,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,6 +168,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -173,7 +192,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -427,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,6 +808,1204 @@
         <v>0.256415</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>19.30825</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>19.04543</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.876725</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.825129</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>6166.4</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>6151.818</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>242.64641</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>184.802868</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>25.73228</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>25.79348</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.807507</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.739489</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>8354.09</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>8066.942</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>291.1865</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>266.311126</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>33.32162</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>32.86943</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.090324</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.735237</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>10567.55</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>10215.75</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>280.116101</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>212.853538</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>50.2729</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>49.06751</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="n">
+        <v>2.842575</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>2.636858</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>39.77324</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>39.1846</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.031437</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.161454</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>12880.4</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>11939.58</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>324.581018</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>249.802082</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>44.78666</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>42.41221</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.117243</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.172081</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>14540.17</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>12786.94</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>314.020297</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>323.282207</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>48.71933</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>45.82207</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1.003838</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.897531</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>16015.64</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>13560.79</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>268.075755</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>261.27484</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>51.40076</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>48.02321</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.919473</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.941813</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>13158.59</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>12293.94</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>235.385169</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>241.104203</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>53.49746</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>50.06106</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.695488</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.768069</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>13695.35</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>12815.63</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>178.044868</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>196.625593</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>300000000000</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>54.66106</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>51.84471</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1.095273</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.099736</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>300000000000</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>13993.23</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>13272.25</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>280.389884</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>281.532496</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>9.835077</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9.836354</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.253159</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.191905</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>18.51022</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>18.51977</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2.040864</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1.99149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>28.4674</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>28.39316</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.941046</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.766779</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>36.53986</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>36.54945</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1.578423</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.707457</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>42.64389</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>42.5724</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3.201517</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3.293675</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>49.33758</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>49.3617</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.95375</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.854684</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>53.94033</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>53.87109</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.630919</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.573178</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>57.03368</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>57.00611</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.419656</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.443241</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>59.17687</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>59.22855</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.334143</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.379086</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>60.68163</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>60.66451</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.297224</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.271746</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>100000000000</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>61.96206</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>61.92737</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.250644</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.226234</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>300000000000</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>63.20019</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>63.47416</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.270411</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.282595</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.952197</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7.946097</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.207892</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.175355</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9.353782</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>9.37185</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.697489</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.633194</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>13.18251</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>13.19701</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.075583</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.053414</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>18.62924</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>18.63421</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.674581</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.654742</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>25.16215</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>25.93224</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.858723</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.024672</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>38.69828</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>37.74058</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.44706</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.044178</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>50.2729</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>49.06751</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>2.842575</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2.636858</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.40533</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7.433435</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.414644</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.341657</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>10.08404</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10.02449</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.470363</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.494303</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>14.34455</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>14.38592</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.696989</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.576976</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>26.45297</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.58939</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1.00469</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.074229</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>36.55065</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>36.11288</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.307723</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.385793</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>52.76787</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>52.53219</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.566902</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.708479</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.568869</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7.598504</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.21742</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.234363</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>10.35406</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10.28795</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.340443</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.324969</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>14.28836</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>14.49571</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.544332</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.513879</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>19.80289</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>19.74431</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.668456</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.56942</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>27.75943</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>27.82967</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.949046</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.933894</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>37.96197</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>38.16885</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.122873</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.302388</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>53.20729</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>53.08162</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.262704</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.079527</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.706522</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7.730202</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.27562</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.247453</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>10.54993</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10.54418</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.359826</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.326455</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>15.25844</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>15.17147</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.566263</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.488253</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>23.61739</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>23.38122</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1.211714</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.220838</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>42.64389</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>42.5724</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3.201517</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3.293675</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>60.49835</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>60.71494</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3.550589</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3.405796</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>78.51835</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>78.46914</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2.800629</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2.791672</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
